--- a/test.xlsx
+++ b/test.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>jiojoij</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,30 @@
   </si>
   <si>
     <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是浊浊地地使用者地有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日光灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晃为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 日光灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +526,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -536,7 +560,9 @@
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="10"/>
       <c r="I1" s="11"/>
@@ -560,7 +586,9 @@
       <c r="E2" s="8">
         <v>89</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
@@ -569,12 +597,18 @@
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
@@ -583,7 +617,9 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
-      <c r="A4" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
